--- a/training and detection/att.xlsx
+++ b/training and detection/att.xlsx
@@ -374,7 +374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A3:C90"/>
+  <dimension ref="A3:C100"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="B1" activeCellId="0" pane="topLeft" sqref="B1"/>
@@ -1342,59 +1342,177 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>26/02/2019</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>26/02/2019</t>
+        </is>
+      </c>
+      <c r="C87" s="1" t="inlineStr">
         <is>
           <t>21:22:24</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Sno</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>Sno</t>
+        </is>
+      </c>
+      <c r="B88" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C88" s="1" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
-        <v>1</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>shamil</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
+      <c r="A89" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B89" s="1" t="inlineStr">
+        <is>
+          <t>shamil</t>
+        </is>
+      </c>
+      <c r="C89" s="1" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
-        <v>2</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>abhi</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
+      <c r="A90" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B90" s="1" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C90" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>26/04/2019</t>
+        </is>
+      </c>
+      <c r="C92" s="1" t="inlineStr">
+        <is>
+          <t>02:48:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>Sno</t>
+        </is>
+      </c>
+      <c r="B93" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C93" s="1" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B94" s="1" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C94" s="1" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B95" s="1" t="inlineStr">
+        <is>
+          <t>shamil</t>
+        </is>
+      </c>
+      <c r="C95" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>26/04/2019</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>02:52:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Sno</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>2</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>shamil</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
         <is>
           <t>no</t>
         </is>

--- a/training and detection/att.xlsx
+++ b/training and detection/att.xlsx
@@ -374,7 +374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A3:C100"/>
+  <dimension ref="A3:C245"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="B1" activeCellId="0" pane="topLeft" sqref="B1"/>
@@ -1460,59 +1460,1816 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="A97" s="1" t="inlineStr">
         <is>
           <t>26/04/2019</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C97" s="1" t="inlineStr">
         <is>
           <t>02:52:01</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Sno</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>Sno</t>
+        </is>
+      </c>
+      <c r="B98" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C98" s="1" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
-        <v>1</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>abhi</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
+      <c r="A99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B99" s="1" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C99" s="1" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
-        <v>2</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>shamil</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
+      <c r="A100" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B100" s="1" t="inlineStr">
+        <is>
+          <t>shamil</t>
+        </is>
+      </c>
+      <c r="C100" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>29/04/2019</t>
+        </is>
+      </c>
+      <c r="C102" s="1" t="inlineStr">
+        <is>
+          <t>13:28:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>29/04/2019</t>
+        </is>
+      </c>
+      <c r="C104" s="1" t="inlineStr">
+        <is>
+          <t>13:33:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>Sno</t>
+        </is>
+      </c>
+      <c r="B105" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C105" s="1" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B106" s="1" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C106" s="1" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B107" s="1" t="inlineStr">
+        <is>
+          <t>shamil</t>
+        </is>
+      </c>
+      <c r="C107" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>29/04/2019</t>
+        </is>
+      </c>
+      <c r="C109" s="1" t="inlineStr">
+        <is>
+          <t>18:38:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>Sno</t>
+        </is>
+      </c>
+      <c r="B110" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C110" s="1" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B111" s="1" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C111" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B112" s="1" t="inlineStr">
+        <is>
+          <t>nobin</t>
+        </is>
+      </c>
+      <c r="C112" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B113" s="1" t="inlineStr">
+        <is>
+          <t>shamil</t>
+        </is>
+      </c>
+      <c r="C113" s="1" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>29/04/2019</t>
+        </is>
+      </c>
+      <c r="C115" s="1" t="inlineStr">
+        <is>
+          <t>18:40:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>Sno</t>
+        </is>
+      </c>
+      <c r="B116" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C116" s="1" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B117" s="1" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C117" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B118" s="1" t="inlineStr">
+        <is>
+          <t>nobin</t>
+        </is>
+      </c>
+      <c r="C118" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B119" s="1" t="inlineStr">
+        <is>
+          <t>shamil</t>
+        </is>
+      </c>
+      <c r="C119" s="1" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>29/04/2019</t>
+        </is>
+      </c>
+      <c r="C121" s="1" t="inlineStr">
+        <is>
+          <t>18:41:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>Sno</t>
+        </is>
+      </c>
+      <c r="B122" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C122" s="1" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B123" s="1" t="inlineStr">
+        <is>
+          <t>shamil</t>
+        </is>
+      </c>
+      <c r="C123" s="1" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>29/04/2019</t>
+        </is>
+      </c>
+      <c r="C125" s="1" t="inlineStr">
+        <is>
+          <t>19:21:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>Sno</t>
+        </is>
+      </c>
+      <c r="B126" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C126" s="1" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B127" s="1" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C127" s="1" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B128" s="1" t="inlineStr">
+        <is>
+          <t>shamil</t>
+        </is>
+      </c>
+      <c r="C128" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>29/04/2019</t>
+        </is>
+      </c>
+      <c r="C130" s="1" t="inlineStr">
+        <is>
+          <t>19:22:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>Sno</t>
+        </is>
+      </c>
+      <c r="B131" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C131" s="1" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B132" s="1" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C132" s="1" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B133" s="1" t="inlineStr">
+        <is>
+          <t>shamil</t>
+        </is>
+      </c>
+      <c r="C133" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>29/04/2019</t>
+        </is>
+      </c>
+      <c r="C135" s="1" t="inlineStr">
+        <is>
+          <t>19:22:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>Sno</t>
+        </is>
+      </c>
+      <c r="B136" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C136" s="1" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B137" s="1" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C137" s="1" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B138" s="1" t="inlineStr">
+        <is>
+          <t>shamil</t>
+        </is>
+      </c>
+      <c r="C138" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>29/04/2019</t>
+        </is>
+      </c>
+      <c r="C140" s="1" t="inlineStr">
+        <is>
+          <t>19:23:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>Sno</t>
+        </is>
+      </c>
+      <c r="B141" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C141" s="1" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B142" s="1" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C142" s="1" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B143" s="1" t="inlineStr">
+        <is>
+          <t>shamil</t>
+        </is>
+      </c>
+      <c r="C143" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>29/04/2019</t>
+        </is>
+      </c>
+      <c r="C145" s="1" t="inlineStr">
+        <is>
+          <t>19:53:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>Sno</t>
+        </is>
+      </c>
+      <c r="B146" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C146" s="1" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B147" s="1" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C147" s="1" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B148" s="1" t="inlineStr">
+        <is>
+          <t>vichu</t>
+        </is>
+      </c>
+      <c r="C148" s="1" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B149" s="1" t="inlineStr">
+        <is>
+          <t>shamil</t>
+        </is>
+      </c>
+      <c r="C149" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>29/04/2019</t>
+        </is>
+      </c>
+      <c r="C151" s="1" t="inlineStr">
+        <is>
+          <t>20:39:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>Sno</t>
+        </is>
+      </c>
+      <c r="B152" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C152" s="1" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B153" s="1" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C153" s="1" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B154" s="1" t="inlineStr">
+        <is>
+          <t>vichu</t>
+        </is>
+      </c>
+      <c r="C154" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B155" s="1" t="inlineStr">
+        <is>
+          <t>shamil</t>
+        </is>
+      </c>
+      <c r="C155" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>29/04/2019</t>
+        </is>
+      </c>
+      <c r="C157" s="1" t="inlineStr">
+        <is>
+          <t>20:42:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>Sno</t>
+        </is>
+      </c>
+      <c r="B158" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C158" s="1" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B159" s="1" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C159" s="1" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B160" s="1" t="inlineStr">
+        <is>
+          <t>vichu</t>
+        </is>
+      </c>
+      <c r="C160" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B161" s="1" t="inlineStr">
+        <is>
+          <t>shamil</t>
+        </is>
+      </c>
+      <c r="C161" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <t>30/04/2019</t>
+        </is>
+      </c>
+      <c r="C163" s="1" t="inlineStr">
+        <is>
+          <t>17:04:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>Sno</t>
+        </is>
+      </c>
+      <c r="B164" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C164" s="1" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B165" s="1" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C165" s="1" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B166" s="1" t="inlineStr">
+        <is>
+          <t>vichu</t>
+        </is>
+      </c>
+      <c r="C166" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B167" s="1" t="inlineStr">
+        <is>
+          <t>shamil</t>
+        </is>
+      </c>
+      <c r="C167" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <t>30/04/2019</t>
+        </is>
+      </c>
+      <c r="C169" s="1" t="inlineStr">
+        <is>
+          <t>17:06:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="inlineStr">
+        <is>
+          <t>Sno</t>
+        </is>
+      </c>
+      <c r="B170" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C170" s="1" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B171" s="1" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C171" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B172" s="1" t="inlineStr">
+        <is>
+          <t>vichu</t>
+        </is>
+      </c>
+      <c r="C172" s="1" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B173" s="1" t="inlineStr">
+        <is>
+          <t>shamil</t>
+        </is>
+      </c>
+      <c r="C173" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="inlineStr">
+        <is>
+          <t>30/04/2019</t>
+        </is>
+      </c>
+      <c r="C175" s="1" t="inlineStr">
+        <is>
+          <t>17:07:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="inlineStr">
+        <is>
+          <t>Sno</t>
+        </is>
+      </c>
+      <c r="B176" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C176" s="1" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B177" s="1" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C177" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B178" s="1" t="inlineStr">
+        <is>
+          <t>vichu</t>
+        </is>
+      </c>
+      <c r="C178" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B179" s="1" t="inlineStr">
+        <is>
+          <t>shamil</t>
+        </is>
+      </c>
+      <c r="C179" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>30/04/2019</t>
+        </is>
+      </c>
+      <c r="C181" s="1" t="inlineStr">
+        <is>
+          <t>17:27:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>Sno</t>
+        </is>
+      </c>
+      <c r="B182" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C182" s="1" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B183" s="1" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C183" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B184" s="1" t="inlineStr">
+        <is>
+          <t>vichu</t>
+        </is>
+      </c>
+      <c r="C184" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B185" s="1" t="inlineStr">
+        <is>
+          <t>shamil</t>
+        </is>
+      </c>
+      <c r="C185" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
+          <t>30/04/2019</t>
+        </is>
+      </c>
+      <c r="C187" s="1" t="inlineStr">
+        <is>
+          <t>17:41:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="inlineStr">
+        <is>
+          <t>Sno</t>
+        </is>
+      </c>
+      <c r="B188" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C188" s="1" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B189" s="1" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C189" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B190" s="1" t="inlineStr">
+        <is>
+          <t>vichu</t>
+        </is>
+      </c>
+      <c r="C190" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B191" s="1" t="inlineStr">
+        <is>
+          <t>shamil</t>
+        </is>
+      </c>
+      <c r="C191" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr">
+        <is>
+          <t>30/04/2019</t>
+        </is>
+      </c>
+      <c r="C193" s="1" t="inlineStr">
+        <is>
+          <t>17:42:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="inlineStr">
+        <is>
+          <t>Sno</t>
+        </is>
+      </c>
+      <c r="B194" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C194" s="1" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B195" s="1" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C195" s="1" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B196" s="1" t="inlineStr">
+        <is>
+          <t>vichu</t>
+        </is>
+      </c>
+      <c r="C196" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B197" s="1" t="inlineStr">
+        <is>
+          <t>shamil</t>
+        </is>
+      </c>
+      <c r="C197" s="1" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="inlineStr">
+        <is>
+          <t>30/04/2019</t>
+        </is>
+      </c>
+      <c r="C199" s="1" t="inlineStr">
+        <is>
+          <t>17:43:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="inlineStr">
+        <is>
+          <t>Sno</t>
+        </is>
+      </c>
+      <c r="B200" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C200" s="1" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B201" s="1" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C201" s="1" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B202" s="1" t="inlineStr">
+        <is>
+          <t>vichu</t>
+        </is>
+      </c>
+      <c r="C202" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B203" s="1" t="inlineStr">
+        <is>
+          <t>shamil</t>
+        </is>
+      </c>
+      <c r="C203" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="inlineStr">
+        <is>
+          <t>30/04/2019</t>
+        </is>
+      </c>
+      <c r="C205" s="1" t="inlineStr">
+        <is>
+          <t>19:53:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="inlineStr">
+        <is>
+          <t>Sno</t>
+        </is>
+      </c>
+      <c r="B206" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C206" s="1" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B207" s="1" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C207" s="1" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B208" s="1" t="inlineStr">
+        <is>
+          <t>vichu</t>
+        </is>
+      </c>
+      <c r="C208" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B209" s="1" t="inlineStr">
+        <is>
+          <t>shamil</t>
+        </is>
+      </c>
+      <c r="C209" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="inlineStr">
+        <is>
+          <t>30/04/2019</t>
+        </is>
+      </c>
+      <c r="C211" s="1" t="inlineStr">
+        <is>
+          <t>19:54:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="inlineStr">
+        <is>
+          <t>Sno</t>
+        </is>
+      </c>
+      <c r="B212" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C212" s="1" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B213" s="1" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C213" s="1" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B214" s="1" t="inlineStr">
+        <is>
+          <t>vichu</t>
+        </is>
+      </c>
+      <c r="C214" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B215" s="1" t="inlineStr">
+        <is>
+          <t>shamil</t>
+        </is>
+      </c>
+      <c r="C215" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="inlineStr">
+        <is>
+          <t>30/04/2019</t>
+        </is>
+      </c>
+      <c r="C217" s="1" t="inlineStr">
+        <is>
+          <t>19:55:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="inlineStr">
+        <is>
+          <t>Sno</t>
+        </is>
+      </c>
+      <c r="B218" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C218" s="1" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B219" s="1" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C219" s="1" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B220" s="1" t="inlineStr">
+        <is>
+          <t>vichu</t>
+        </is>
+      </c>
+      <c r="C220" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B221" s="1" t="inlineStr">
+        <is>
+          <t>shamil</t>
+        </is>
+      </c>
+      <c r="C221" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="inlineStr">
+        <is>
+          <t>30/04/2019</t>
+        </is>
+      </c>
+      <c r="C223" s="1" t="inlineStr">
+        <is>
+          <t>19:55:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="inlineStr">
+        <is>
+          <t>Sno</t>
+        </is>
+      </c>
+      <c r="B224" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C224" s="1" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B225" s="1" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C225" s="1" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B226" s="1" t="inlineStr">
+        <is>
+          <t>vichu</t>
+        </is>
+      </c>
+      <c r="C226" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B227" s="1" t="inlineStr">
+        <is>
+          <t>shamil</t>
+        </is>
+      </c>
+      <c r="C227" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="inlineStr">
+        <is>
+          <t>04/05/2019</t>
+        </is>
+      </c>
+      <c r="C229" s="1" t="inlineStr">
+        <is>
+          <t>15:21:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="inlineStr">
+        <is>
+          <t>Sno</t>
+        </is>
+      </c>
+      <c r="B230" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C230" s="1" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B231" s="1" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C231" s="1" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B232" s="1" t="inlineStr">
+        <is>
+          <t>vichu</t>
+        </is>
+      </c>
+      <c r="C232" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B233" s="1" t="inlineStr">
+        <is>
+          <t>shamil</t>
+        </is>
+      </c>
+      <c r="C233" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="inlineStr">
+        <is>
+          <t>09/05/2019</t>
+        </is>
+      </c>
+      <c r="C235" s="1" t="inlineStr">
+        <is>
+          <t>12:44:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="inlineStr">
+        <is>
+          <t>Sno</t>
+        </is>
+      </c>
+      <c r="B236" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C236" s="1" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B237" s="1" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C237" s="1" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B238" s="1" t="inlineStr">
+        <is>
+          <t>vichu</t>
+        </is>
+      </c>
+      <c r="C238" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B239" s="1" t="inlineStr">
+        <is>
+          <t>shamil</t>
+        </is>
+      </c>
+      <c r="C239" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>09/05/2019</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>14:13:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Sno</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>1</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>abhi</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>2</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>vichu</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>3</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>shamil</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
         <is>
           <t>no</t>
         </is>
